--- a/data/trans_orig/P16A03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6410</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2777</v>
+        <v>2020</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13349</v>
+        <v>13268</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02348075602803724</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01017036263004207</v>
+        <v>0.007400358874402293</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04889735465015983</v>
+        <v>0.04859975829019978</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -765,19 +765,19 @@
         <v>18050</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11268</v>
+        <v>11033</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28218</v>
+        <v>28428</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06919972136891556</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04319753383670365</v>
+        <v>0.0422991678140715</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1081813604330917</v>
+        <v>0.1089883068382556</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -786,19 +786,19 @@
         <v>24460</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14737</v>
+        <v>15841</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34867</v>
+        <v>35779</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04581903762455401</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02760483264294098</v>
+        <v>0.02967380302992388</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06531314101221503</v>
+        <v>0.06702087187087333</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>266600</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259661</v>
+        <v>259742</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>270233</v>
+        <v>270990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9765192439719628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9511026453498402</v>
+        <v>0.9514002417098002</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9898296373699579</v>
+        <v>0.9925996411255977</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -836,19 +836,19 @@
         <v>242788</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>232620</v>
+        <v>232410</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>249570</v>
+        <v>249805</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9308002786310844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.891818639566908</v>
+        <v>0.8910116931617446</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9568024661632963</v>
+        <v>0.9577008321859287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>493</v>
@@ -857,19 +857,19 @@
         <v>509388</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>498981</v>
+        <v>498069</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>519111</v>
+        <v>518007</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.954180962375446</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.934686858987785</v>
+        <v>0.9329791281291268</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9723951673570591</v>
+        <v>0.9703261969700762</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>9088</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3543</v>
+        <v>3580</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19263</v>
+        <v>19983</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01843162270870364</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007185065199872723</v>
+        <v>0.007259811070839817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03906715464923095</v>
+        <v>0.04052773928107949</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -982,19 +982,19 @@
         <v>21603</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13741</v>
+        <v>14346</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31663</v>
+        <v>33286</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04286673675378593</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02726649638522453</v>
+        <v>0.02846721714034687</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06282961221735131</v>
+        <v>0.06604965751700792</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1003,19 +1003,19 @@
         <v>30691</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20565</v>
+        <v>20293</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44113</v>
+        <v>44500</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03078242936811972</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02062642596664449</v>
+        <v>0.02035404874068004</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0442449293768265</v>
+        <v>0.04463321861297703</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>483987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473812</v>
+        <v>473092</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>489532</v>
+        <v>489495</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9815683772912963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9609328453507691</v>
+        <v>0.9594722607189206</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9928149348001273</v>
+        <v>0.9927401889291602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>478</v>
@@ -1053,19 +1053,19 @@
         <v>482346</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>472286</v>
+        <v>470663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>490208</v>
+        <v>489603</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9571332632462141</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9371703877826488</v>
+        <v>0.9339503424829928</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9727335036147755</v>
+        <v>0.9715327828596533</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>937</v>
@@ -1074,19 +1074,19 @@
         <v>966333</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>952911</v>
+        <v>952524</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>976459</v>
+        <v>976731</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9692175706318803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9557550706231736</v>
+        <v>0.9553667813870229</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9793735740333555</v>
+        <v>0.97964595125932</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10915</v>
+        <v>10867</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01205912474781715</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002986757380209658</v>
+        <v>0.003002663845903936</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03423391630545401</v>
+        <v>0.03408088096826844</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1199,19 +1199,19 @@
         <v>17869</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10958</v>
+        <v>11642</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27468</v>
+        <v>28508</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05327442173500226</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03267005800831829</v>
+        <v>0.03471050120288605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08189196027362877</v>
+        <v>0.08499262706120184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1220,19 +1220,19 @@
         <v>21714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13234</v>
+        <v>13799</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32272</v>
+        <v>32734</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03318856772183329</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0202271713140151</v>
+        <v>0.02109055446844688</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.049326518923939</v>
+        <v>0.05003169917368624</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>315001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307931</v>
+        <v>307979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317894</v>
+        <v>317889</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9879408752521829</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9657660836945452</v>
+        <v>0.9659191190317341</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970132426197903</v>
+        <v>0.9969973361540961</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>316</v>
@@ -1270,19 +1270,19 @@
         <v>317543</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>307944</v>
+        <v>306904</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>324454</v>
+        <v>323770</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9467255782649977</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9181080397263713</v>
+        <v>0.9150073729387981</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9673299419916818</v>
+        <v>0.9652894987971139</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>623</v>
@@ -1291,19 +1291,19 @@
         <v>632544</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>621986</v>
+        <v>621524</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641024</v>
+        <v>640459</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9668114322781667</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9506734810760611</v>
+        <v>0.949968300826314</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9797728286859849</v>
+        <v>0.9789094455315532</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11402</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6027</v>
+        <v>6377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19398</v>
+        <v>20052</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0317906522384405</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01680507422507314</v>
+        <v>0.01777854831046128</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05408195161967983</v>
+        <v>0.05590625235982227</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1416,19 +1416,19 @@
         <v>25314</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17349</v>
+        <v>16783</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35836</v>
+        <v>35148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06814791372517601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04670637087112656</v>
+        <v>0.04518213947835197</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09647538934254946</v>
+        <v>0.0946210133410072</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -1437,19 +1437,19 @@
         <v>36716</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25948</v>
+        <v>26459</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49410</v>
+        <v>48432</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05028759897056336</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03553969301823462</v>
+        <v>0.03623853781318512</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06767267317595597</v>
+        <v>0.06633370893697589</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>347269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339273</v>
+        <v>338619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>352644</v>
+        <v>352294</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9682093477615595</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9459180483803198</v>
+        <v>0.9440937476401777</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9831949257749268</v>
+        <v>0.9822214516895383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>357</v>
@@ -1487,19 +1487,19 @@
         <v>346142</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>335620</v>
+        <v>336308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>354107</v>
+        <v>354673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.931852086274824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9035246106574507</v>
+        <v>0.9053789866589929</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9532936291288736</v>
+        <v>0.9548178605216484</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>707</v>
@@ -1508,19 +1508,19 @@
         <v>693411</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>680717</v>
+        <v>681695</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>704179</v>
+        <v>703668</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9497124010294367</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9323273268240442</v>
+        <v>0.9336662910630242</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9644603069817655</v>
+        <v>0.9637614621868149</v>
       </c>
     </row>
     <row r="15">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4481</v>
+        <v>4476</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004402751635964347</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0220428749049474</v>
+        <v>0.0220155630739712</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1633,19 +1633,19 @@
         <v>10889</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5427</v>
+        <v>4978</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19267</v>
+        <v>19342</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0524332342675302</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02613171086087385</v>
+        <v>0.02397253328008716</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09277695884337177</v>
+        <v>0.09313736802232088</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1654,19 +1654,19 @@
         <v>11784</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5936</v>
+        <v>5939</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19986</v>
+        <v>21328</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02867276533692124</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0144424547083469</v>
+        <v>0.01445056088526855</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04863175445350096</v>
+        <v>0.05189539193347445</v>
       </c>
     </row>
     <row r="17">
@@ -1683,7 +1683,7 @@
         <v>202413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198827</v>
+        <v>198832</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>203308</v>
@@ -1692,7 +1692,7 @@
         <v>0.9955972483640356</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9779571250950526</v>
+        <v>0.9779844369260289</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1704,19 +1704,19 @@
         <v>196779</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188401</v>
+        <v>188326</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202241</v>
+        <v>202690</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9475667657324698</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9072230411566282</v>
+        <v>0.9068626319776791</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.973868289139126</v>
+        <v>0.9760274667199128</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>393</v>
@@ -1725,19 +1725,19 @@
         <v>399192</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>390990</v>
+        <v>389648</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>405040</v>
+        <v>405037</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9713272346630788</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9513682455464991</v>
+        <v>0.948104608066526</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9855575452916531</v>
+        <v>0.9855494391147319</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>4752</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1871</v>
+        <v>1880</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10959</v>
+        <v>10367</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01754548704879744</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006909765540813445</v>
+        <v>0.006942478301029837</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04046830618234641</v>
+        <v>0.03828115266553947</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1850,19 +1850,19 @@
         <v>18164</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10795</v>
+        <v>11193</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26899</v>
+        <v>27447</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06530503291969153</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03881062567410788</v>
+        <v>0.04024152371860412</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09670975643081085</v>
+        <v>0.09867732695274109</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -1871,19 +1871,19 @@
         <v>22916</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15071</v>
+        <v>14149</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34304</v>
+        <v>32298</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04174424838620918</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02745411701690912</v>
+        <v>0.02577408639414576</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06248906554648676</v>
+        <v>0.05883563772466651</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>266059</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259852</v>
+        <v>260444</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268940</v>
+        <v>268931</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9824545129512026</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9595316938176519</v>
+        <v>0.9617188473344602</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9930902344591865</v>
+        <v>0.9930575216989701</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>252</v>
@@ -1921,19 +1921,19 @@
         <v>259980</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>251245</v>
+        <v>250697</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>267349</v>
+        <v>266951</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9346949670803085</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9032902435691891</v>
+        <v>0.9013226730472592</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9611893743258921</v>
+        <v>0.9597584762813959</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>513</v>
@@ -1942,19 +1942,19 @@
         <v>526039</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>514651</v>
+        <v>516657</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533884</v>
+        <v>534806</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9582557516137908</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9375109344535134</v>
+        <v>0.9411643622753335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.972545882983091</v>
+        <v>0.9742259136058543</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>18504</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11433</v>
+        <v>12148</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30287</v>
+        <v>30169</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03008725579485238</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01858999667777333</v>
+        <v>0.01975150334713914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.049245297235681</v>
+        <v>0.04905291489352607</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -2067,19 +2067,19 @@
         <v>41532</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29729</v>
+        <v>30670</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55687</v>
+        <v>54510</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06507408954598164</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04658114557292895</v>
+        <v>0.04805630530196289</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08725415313399358</v>
+        <v>0.08540942999720995</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -2088,19 +2088,19 @@
         <v>60036</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46840</v>
+        <v>45733</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77139</v>
+        <v>77505</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04790439835012415</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03737509510717233</v>
+        <v>0.03649175585968428</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06155118722165419</v>
+        <v>0.06184324743837292</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>596523</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>584740</v>
+        <v>584858</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>603594</v>
+        <v>602879</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9699127442051476</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9507547027643194</v>
+        <v>0.9509470851064744</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9814100033222267</v>
+        <v>0.9802484966528608</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>581</v>
@@ -2138,19 +2138,19 @@
         <v>596687</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>582532</v>
+        <v>583709</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>608490</v>
+        <v>607549</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9349259104540184</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9127458468660063</v>
+        <v>0.9145905700027902</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9534188544270711</v>
+        <v>0.9519436946980371</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1161</v>
@@ -2159,19 +2159,19 @@
         <v>1193210</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1176107</v>
+        <v>1175741</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1206406</v>
+        <v>1207513</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9520956016498758</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9384488127783458</v>
+        <v>0.938156752561627</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9626249048928276</v>
+        <v>0.9635082441403158</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>18380</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10358</v>
+        <v>11168</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28008</v>
+        <v>31284</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02474515763068168</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01394489657056156</v>
+        <v>0.01503525603323447</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03770694038405679</v>
+        <v>0.04211718322469502</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -2284,19 +2284,19 @@
         <v>26266</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17522</v>
+        <v>17424</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38261</v>
+        <v>38328</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03352363972103486</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02236375560784841</v>
+        <v>0.02223820900420585</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04883246718130575</v>
+        <v>0.04891852895906609</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>44</v>
@@ -2305,19 +2305,19 @@
         <v>44646</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32701</v>
+        <v>32757</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59783</v>
+        <v>60180</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02925154034258082</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02142494097155589</v>
+        <v>0.02146172948963689</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03916874275117958</v>
+        <v>0.03942902177724168</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>724397</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>714769</v>
+        <v>711493</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>732419</v>
+        <v>731609</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9752548423693184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.962293059615943</v>
+        <v>0.957882816775305</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9860551034294384</v>
+        <v>0.9849647439667653</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>719</v>
@@ -2355,19 +2355,19 @@
         <v>757245</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>745250</v>
+        <v>745183</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>765989</v>
+        <v>766087</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9664763602789651</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9511675328186944</v>
+        <v>0.9510814710409341</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9776362443921516</v>
+        <v>0.9777617909957942</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1436</v>
@@ -2376,19 +2376,19 @@
         <v>1481642</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1466505</v>
+        <v>1466108</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1493587</v>
+        <v>1493531</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9707484596574192</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9608312572488207</v>
+        <v>0.9605709782227584</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9785750590284442</v>
+        <v>0.9785382705103632</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>73277</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>58554</v>
+        <v>56794</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>94586</v>
+        <v>91144</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02237115483049533</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01787624841270709</v>
+        <v>0.0173388800541074</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0288765491678696</v>
+        <v>0.0278258246201784</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>178</v>
@@ -2501,19 +2501,19 @@
         <v>179686</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>156609</v>
+        <v>152963</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>207697</v>
+        <v>204565</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05317416256904241</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04634489438971721</v>
+        <v>0.04526609960611089</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06146344848268166</v>
+        <v>0.06053652538851954</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>247</v>
@@ -2522,19 +2522,19 @@
         <v>252963</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>224524</v>
+        <v>225201</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>284559</v>
+        <v>285471</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03801259464494729</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03373898616079787</v>
+        <v>0.03384077625063487</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04276052137304136</v>
+        <v>0.04289754052789286</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3202248</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3180939</v>
+        <v>3184381</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3216971</v>
+        <v>3218731</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9776288451695047</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9711234508321306</v>
+        <v>0.9721741753798209</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9821237515872929</v>
+        <v>0.9826611199458924</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3119</v>
@@ -2572,19 +2572,19 @@
         <v>3199511</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3171500</v>
+        <v>3174632</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3222588</v>
+        <v>3226234</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9468258374309576</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9385365515173183</v>
+        <v>0.9394634746114805</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9536551056102824</v>
+        <v>0.9547339003938904</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6263</v>
@@ -2593,19 +2593,19 @@
         <v>6401759</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6370163</v>
+        <v>6369251</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6430198</v>
+        <v>6429521</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9619874053550527</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9572394786269589</v>
+        <v>0.9571024594721073</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9662610138392023</v>
+        <v>0.9661592237493654</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>6508</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2638</v>
+        <v>2764</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14047</v>
+        <v>14588</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02242647618796599</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009088797507531133</v>
+        <v>0.009525425744303559</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04840444573817926</v>
+        <v>0.05026981132053277</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2962,19 +2962,19 @@
         <v>16516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9170</v>
+        <v>9493</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26300</v>
+        <v>26715</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0591287188460068</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03282709053574011</v>
+        <v>0.03398394402494884</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09415595273761865</v>
+        <v>0.095641376222558</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -2983,19 +2983,19 @@
         <v>23025</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14390</v>
+        <v>15045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35289</v>
+        <v>35069</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04042720298522928</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02526661190262599</v>
+        <v>0.02641687082256938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06196227618625565</v>
+        <v>0.06157514210321494</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>283695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>276156</v>
+        <v>275615</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287565</v>
+        <v>287439</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.977573523812034</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9515955542618215</v>
+        <v>0.9497301886794673</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.990911202492469</v>
+        <v>0.9904745742556964</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -3033,19 +3033,19 @@
         <v>262813</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253029</v>
+        <v>252614</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>270159</v>
+        <v>269836</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9408712811539932</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9058440472623813</v>
+        <v>0.9043586237774418</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9671729094642599</v>
+        <v>0.9660160559750512</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>506</v>
@@ -3054,19 +3054,19 @@
         <v>546507</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>534243</v>
+        <v>534463</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>555142</v>
+        <v>554487</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9595727970147707</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9380377238137446</v>
+        <v>0.9384248578967849</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9747333880973742</v>
+        <v>0.9735831291774306</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>8696</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3120</v>
+        <v>3126</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19222</v>
+        <v>21717</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01720182219580464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006172126109928319</v>
+        <v>0.006183577031291018</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03802382657088478</v>
+        <v>0.04295945982206877</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -3179,19 +3179,19 @@
         <v>29540</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19319</v>
+        <v>19433</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43092</v>
+        <v>42907</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05651060150569987</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03695872240400132</v>
+        <v>0.03717556696594988</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08243535664131857</v>
+        <v>0.08208301521584752</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -3200,19 +3200,19 @@
         <v>38236</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27150</v>
+        <v>27177</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55974</v>
+        <v>55599</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03718504440581161</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02640432238996695</v>
+        <v>0.02643030376536359</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05443532743674745</v>
+        <v>0.05407080929531763</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>496831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>486305</v>
+        <v>483810</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>502407</v>
+        <v>502401</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9827981778041953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9619761734291151</v>
+        <v>0.9570405401779308</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9938278738900717</v>
+        <v>0.993816422968709</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>453</v>
@@ -3250,19 +3250,19 @@
         <v>493191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>479639</v>
+        <v>479824</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>503412</v>
+        <v>503298</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9434893984943001</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9175646433586817</v>
+        <v>0.9179169847841526</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9630412775959989</v>
+        <v>0.9628244330340505</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>920</v>
@@ -3271,19 +3271,19 @@
         <v>990022</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>972284</v>
+        <v>972659</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1001108</v>
+        <v>1001081</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9628149555941884</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9455646725632527</v>
+        <v>0.9459291907046826</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9735956776100332</v>
+        <v>0.9735696962346364</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>4814</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9741</v>
+        <v>10784</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0148972670747899</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005846359930038451</v>
+        <v>0.005832461376258982</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03014611748045234</v>
+        <v>0.03337520918805871</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -3396,19 +3396,19 @@
         <v>19348</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11911</v>
+        <v>12106</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29817</v>
+        <v>30002</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05691445624927619</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03503583105210448</v>
+        <v>0.03561059361480223</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0877094117741487</v>
+        <v>0.08825332510606594</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -3417,19 +3417,19 @@
         <v>24162</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15988</v>
+        <v>15476</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36248</v>
+        <v>34541</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0364393799645979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02411181322668786</v>
+        <v>0.02333957468461923</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05466754646522212</v>
+        <v>0.05209199421822528</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>318302</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313375</v>
+        <v>312332</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>321227</v>
+        <v>321231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9851027329252101</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9698538825195475</v>
+        <v>0.966624790811941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9941536400699615</v>
+        <v>0.994167538623741</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>298</v>
@@ -3467,19 +3467,19 @@
         <v>320607</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>310138</v>
+        <v>309953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328044</v>
+        <v>327849</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9430855437507238</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.912290588225851</v>
+        <v>0.9117466748939334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9649641689478955</v>
+        <v>0.9643894063851974</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>611</v>
@@ -3488,19 +3488,19 @@
         <v>638909</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>626823</v>
+        <v>628530</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647083</v>
+        <v>647595</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9635606200354021</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.945332453534778</v>
+        <v>0.9479080057817749</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9758881867733121</v>
+        <v>0.9766604253153809</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>5304</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1959</v>
+        <v>2084</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11802</v>
+        <v>11123</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01418325660283501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005237993697436841</v>
+        <v>0.005572420919387045</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03155802598589375</v>
+        <v>0.02974177693511354</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -3613,19 +3613,19 @@
         <v>32709</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21703</v>
+        <v>22551</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45244</v>
+        <v>45773</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08430679939701254</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05593947825796999</v>
+        <v>0.05812526219005881</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.116616423667532</v>
+        <v>0.1179805594332034</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -3634,19 +3634,19 @@
         <v>38013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25811</v>
+        <v>26628</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50445</v>
+        <v>52182</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04988888136313832</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03387527602777678</v>
+        <v>0.03494632446183097</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06620473671390395</v>
+        <v>0.06848400631497982</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>368678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>362180</v>
+        <v>362859</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372023</v>
+        <v>371898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.985816743397165</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9684419740141063</v>
+        <v>0.9702582230648864</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9947620063025632</v>
+        <v>0.994427579080613</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>340</v>
@@ -3684,19 +3684,19 @@
         <v>355265</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342730</v>
+        <v>342201</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366271</v>
+        <v>365423</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9156932006029874</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8833835763324679</v>
+        <v>0.8820194405667968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9440605217420298</v>
+        <v>0.9418747378099412</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>679</v>
@@ -3705,19 +3705,19 @@
         <v>723943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>711511</v>
+        <v>709774</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>736145</v>
+        <v>735328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9501111186368617</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9337952632860961</v>
+        <v>0.9315159936850201</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9661247239722232</v>
+        <v>0.9650536755381691</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>4170</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10232</v>
+        <v>9808</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01961367102000484</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004962047744085335</v>
+        <v>0.004938744118133226</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04812483440307555</v>
+        <v>0.04613172064927154</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -3830,19 +3830,19 @@
         <v>20912</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12929</v>
+        <v>12971</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30845</v>
+        <v>32593</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09523089479041404</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05887837398352517</v>
+        <v>0.05906733336316387</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.140466695788507</v>
+        <v>0.1484249444622466</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -3851,19 +3851,19 @@
         <v>25082</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16400</v>
+        <v>16001</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37440</v>
+        <v>36744</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05803226080548315</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03794511078690974</v>
+        <v>0.03702245830632932</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08662517638262235</v>
+        <v>0.08501518008857482</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>208448</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>202386</v>
+        <v>202810</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211563</v>
+        <v>211568</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9803863289799951</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9518751655969243</v>
+        <v>0.9538682793507309</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9950379522559146</v>
+        <v>0.9950612558818668</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>193</v>
@@ -3901,19 +3901,19 @@
         <v>198679</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188746</v>
+        <v>186998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206662</v>
+        <v>206620</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.904769105209586</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8595333042114933</v>
+        <v>0.8515750555377534</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9411216260164749</v>
+        <v>0.9409326666368361</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>385</v>
@@ -3922,19 +3922,19 @@
         <v>407127</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>394769</v>
+        <v>395465</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>415809</v>
+        <v>416208</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9419677391945168</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9133748236173778</v>
+        <v>0.9149848199114251</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9620548892130902</v>
+        <v>0.9629775416936707</v>
       </c>
     </row>
     <row r="18">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6981</v>
+        <v>7007</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007272738480158182</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02548127908506</v>
+        <v>0.02557298778534782</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -4047,19 +4047,19 @@
         <v>14076</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8135</v>
+        <v>7960</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22943</v>
+        <v>23021</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05042491622845596</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02914411876075582</v>
+        <v>0.0285144869732625</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08219289884920246</v>
+        <v>0.08246979824809424</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -4068,19 +4068,19 @@
         <v>16068</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9184</v>
+        <v>8918</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25795</v>
+        <v>24703</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02905008362364187</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.016604274911084</v>
+        <v>0.01612283536637103</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04663585345586566</v>
+        <v>0.04466182802263314</v>
       </c>
     </row>
     <row r="20">
@@ -4097,7 +4097,7 @@
         <v>271988</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>267000</v>
+        <v>266974</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -4106,7 +4106,7 @@
         <v>0.9927272615198418</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9745187209149401</v>
+        <v>0.974427012214652</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4118,19 +4118,19 @@
         <v>265064</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>256197</v>
+        <v>256119</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271005</v>
+        <v>271180</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9495750837715441</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9178071011507976</v>
+        <v>0.9175302017519057</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9708558812392442</v>
+        <v>0.9714855130267375</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>513</v>
@@ -4139,19 +4139,19 @@
         <v>537053</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>527326</v>
+        <v>528418</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>543937</v>
+        <v>544203</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9709499163763581</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9533641465441339</v>
+        <v>0.9553381719773673</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9833957250889159</v>
+        <v>0.9838771646336292</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>8573</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3733</v>
+        <v>3681</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17625</v>
+        <v>16625</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01293473696702457</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005631604374136642</v>
+        <v>0.005554335272809307</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0265924181091262</v>
+        <v>0.02508362411346338</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -4264,19 +4264,19 @@
         <v>44466</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33307</v>
+        <v>32620</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58431</v>
+        <v>58143</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06408555707220213</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04800364958123229</v>
+        <v>0.04701315867752675</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08421232482493678</v>
+        <v>0.08379696607856753</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -4285,19 +4285,19 @@
         <v>53039</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39258</v>
+        <v>39332</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68915</v>
+        <v>69118</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03909578342219892</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0289376819771953</v>
+        <v>0.02899236130274</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05079797431981938</v>
+        <v>0.05094806352526842</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>654215</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>645163</v>
+        <v>646163</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>659055</v>
+        <v>659107</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9870652630329755</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9734075818908741</v>
+        <v>0.9749163758865382</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9943683956258634</v>
+        <v>0.9944456647271908</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>595</v>
@@ -4335,19 +4335,19 @@
         <v>649387</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>635422</v>
+        <v>635710</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>660546</v>
+        <v>661233</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9359144429277979</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9157876751750634</v>
+        <v>0.9162030339214324</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9519963504187677</v>
+        <v>0.9529868413224734</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1205</v>
@@ -4356,19 +4356,19 @@
         <v>1303602</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1287726</v>
+        <v>1287523</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1317383</v>
+        <v>1317309</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9609042165778011</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9492020256801805</v>
+        <v>0.9490519364747315</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9710623180228045</v>
+        <v>0.9710076386972599</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>5498</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2065</v>
+        <v>1967</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12503</v>
+        <v>11591</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007075859762130675</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002657774000747128</v>
+        <v>0.002531508948448012</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01609245282394401</v>
+        <v>0.01491757623676021</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -4481,19 +4481,19 @@
         <v>35463</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24422</v>
+        <v>24596</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49034</v>
+        <v>48923</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0431672625515095</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02972822484632923</v>
+        <v>0.029939232820623</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05968702388802431</v>
+        <v>0.05955190142001354</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -4502,19 +4502,19 @@
         <v>40961</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29473</v>
+        <v>29012</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56594</v>
+        <v>55755</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02562447912121569</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01843779156376641</v>
+        <v>0.01814974753539716</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03540431977312374</v>
+        <v>0.034879768119529</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>771474</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>764469</v>
+        <v>765381</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>774907</v>
+        <v>775005</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9929241402378693</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.983907547176056</v>
+        <v>0.9850824237632397</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9973422259992529</v>
+        <v>0.997468491051552</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>723</v>
@@ -4552,19 +4552,19 @@
         <v>786057</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>772486</v>
+        <v>772597</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>797098</v>
+        <v>796924</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9568327374484905</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9403129761119757</v>
+        <v>0.9404480985799865</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9702717751536707</v>
+        <v>0.9700607671793771</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1433</v>
@@ -4573,19 +4573,19 @@
         <v>1557531</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1541898</v>
+        <v>1542737</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1569019</v>
+        <v>1569480</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9743755208787843</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9645956802268763</v>
+        <v>0.9651202318804711</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9815622084362338</v>
+        <v>0.9818502524646031</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>45556</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>32534</v>
+        <v>31808</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>61293</v>
+        <v>61312</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01332351681770602</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009515053600464606</v>
+        <v>0.00930292856154942</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01792620202957717</v>
+        <v>0.01793182119195608</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>195</v>
@@ -4698,19 +4698,19 @@
         <v>213030</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>186812</v>
+        <v>186209</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>246152</v>
+        <v>245560</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06010835181399181</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05271082209420064</v>
+        <v>0.05254052173751511</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06945415756656906</v>
+        <v>0.06928702712434376</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>235</v>
@@ -4719,19 +4719,19 @@
         <v>258585</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>228419</v>
+        <v>225909</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>292461</v>
+        <v>287718</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03713554212317843</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03280342163685292</v>
+        <v>0.0324429455565006</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04200041994124094</v>
+        <v>0.04131932100474935</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3373632</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3357895</v>
+        <v>3357876</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3386654</v>
+        <v>3387380</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.986676483182294</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9820737979704227</v>
+        <v>0.9820681788080442</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9904849463995354</v>
+        <v>0.9906970714384508</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3090</v>
@@ -4769,19 +4769,19 @@
         <v>3331064</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3297942</v>
+        <v>3298534</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3357282</v>
+        <v>3357885</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9398916481860082</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.930545842433431</v>
+        <v>0.9307129728756562</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9472891779057994</v>
+        <v>0.9474594782624849</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6252</v>
@@ -4790,19 +4790,19 @@
         <v>6704697</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6670821</v>
+        <v>6675564</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6734863</v>
+        <v>6737373</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9628644578768216</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9579995800587591</v>
+        <v>0.9586806789952508</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.967196578363147</v>
+        <v>0.9675570544434995</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>3119</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9048</v>
+        <v>8553</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0106187057605705</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002700416208487859</v>
+        <v>0.002723826188472165</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03079979380673895</v>
+        <v>0.0291141480177702</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -5159,19 +5159,19 @@
         <v>20762</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12362</v>
+        <v>12452</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31183</v>
+        <v>31191</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0719150202536349</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04281818221838653</v>
+        <v>0.0431318852055004</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1080110029267286</v>
+        <v>0.1080367151072495</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -5180,19 +5180,19 @@
         <v>23881</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15839</v>
+        <v>15479</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36305</v>
+        <v>34677</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04100072053473892</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02719238352658316</v>
+        <v>0.02657539831722552</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06233044987179288</v>
+        <v>0.05953460142185282</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>290642</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284713</v>
+        <v>285208</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292968</v>
+        <v>292961</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9893812942394294</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9692002061932606</v>
+        <v>0.9708858519822294</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9972995837915121</v>
+        <v>0.9972761738115278</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>258</v>
@@ -5230,19 +5230,19 @@
         <v>267941</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>257520</v>
+        <v>257512</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276341</v>
+        <v>276251</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9280849797463651</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8919889970732716</v>
+        <v>0.8919632848927506</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9571818177816137</v>
+        <v>0.9568681147944998</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>521</v>
@@ -5251,19 +5251,19 @@
         <v>558583</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>546159</v>
+        <v>547787</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>566625</v>
+        <v>566985</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9589992794652611</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9376695501282065</v>
+        <v>0.9404653985781471</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9728076164734166</v>
+        <v>0.9734246016827746</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>6044</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2234</v>
+        <v>2063</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11926</v>
+        <v>12944</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01202666649831165</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004445770246579648</v>
+        <v>0.004105596749819718</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02373016403644516</v>
+        <v>0.02575620756198138</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -5376,19 +5376,19 @@
         <v>11662</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6381</v>
+        <v>6203</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20194</v>
+        <v>20080</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02229433253179257</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01219855945117889</v>
+        <v>0.01185844189108014</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03860537263245569</v>
+        <v>0.03838701467249656</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -5397,19 +5397,19 @@
         <v>17706</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10808</v>
+        <v>10489</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28004</v>
+        <v>27587</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01726315340697925</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01053797991742121</v>
+        <v>0.01022686942921713</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02730351927738397</v>
+        <v>0.02689715218947352</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>496531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>490649</v>
+        <v>489631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500341</v>
+        <v>500512</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9879733335016884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9762698359635549</v>
+        <v>0.9742437924380186</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9955542297534204</v>
+        <v>0.9958944032501803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>473</v>
@@ -5447,19 +5447,19 @@
         <v>511422</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>502890</v>
+        <v>503004</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>516703</v>
+        <v>516881</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9777056674682074</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9613946273675443</v>
+        <v>0.9616129853275034</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9878014405488211</v>
+        <v>0.9881415581089198</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>942</v>
@@ -5468,19 +5468,19 @@
         <v>1007953</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>997655</v>
+        <v>998072</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1014851</v>
+        <v>1015170</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9827368465930207</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9726964807226157</v>
+        <v>0.9731028478105265</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9894620200825782</v>
+        <v>0.9897731305707828</v>
       </c>
     </row>
     <row r="9">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6604</v>
+        <v>5544</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004990970840368668</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02073001236465668</v>
+        <v>0.01740207560306991</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -5593,19 +5593,19 @@
         <v>11750</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5913</v>
+        <v>6111</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20427</v>
+        <v>20900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03493957600489069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01758179789193327</v>
+        <v>0.01817083918324043</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06074026480995468</v>
+        <v>0.06214531491767745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -5614,19 +5614,19 @@
         <v>13340</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7229</v>
+        <v>7035</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22179</v>
+        <v>21960</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02037100657278615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01103827363499689</v>
+        <v>0.01074276955064729</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0338672800878643</v>
+        <v>0.03353295010009067</v>
       </c>
     </row>
     <row r="11">
@@ -5643,7 +5643,7 @@
         <v>316975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311961</v>
+        <v>313021</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -5652,7 +5652,7 @@
         <v>0.9950090291596313</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9792699876353435</v>
+        <v>0.9825979243969302</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5664,19 +5664,19 @@
         <v>324559</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>315882</v>
+        <v>315409</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330396</v>
+        <v>330198</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9650604239951093</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9392597351900439</v>
+        <v>0.9378546850823228</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9824182021080666</v>
+        <v>0.9818291608167596</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>654</v>
@@ -5685,19 +5685,19 @@
         <v>641534</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>632695</v>
+        <v>632914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647645</v>
+        <v>647839</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9796289934272139</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9661327199121355</v>
+        <v>0.9664670498999073</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9889617263650025</v>
+        <v>0.9892572304493524</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>5775</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11660</v>
+        <v>11997</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01561023036973086</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005505256254781011</v>
+        <v>0.005495437374830473</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03151708209266299</v>
+        <v>0.03242748657729466</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -5810,19 +5810,19 @@
         <v>29888</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20051</v>
+        <v>21000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42147</v>
+        <v>42205</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07717451666479974</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05177291841615995</v>
+        <v>0.05422328182426471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1088261161192459</v>
+        <v>0.1089763361679403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -5831,19 +5831,19 @@
         <v>35664</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24163</v>
+        <v>25733</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48635</v>
+        <v>48977</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04709639217954599</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03190930228181785</v>
+        <v>0.03398251492755459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06422659464289729</v>
+        <v>0.06467735219970856</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>364189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358304</v>
+        <v>357967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367927</v>
+        <v>367931</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9843897696302691</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9684829179073369</v>
+        <v>0.9675725134227053</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9944947437452191</v>
+        <v>0.9945045626251695</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>330</v>
@@ -5881,19 +5881,19 @@
         <v>357395</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>345136</v>
+        <v>345078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367232</v>
+        <v>366283</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9228254833352002</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8911738838807541</v>
+        <v>0.8910236638320598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9482270815838401</v>
+        <v>0.9457767181757353</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>678</v>
@@ -5902,19 +5902,19 @@
         <v>721583</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>708612</v>
+        <v>708270</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>733084</v>
+        <v>731514</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.952903607820454</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9357734053571027</v>
+        <v>0.9353226478002914</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9680906977181821</v>
+        <v>0.9660174850724454</v>
       </c>
     </row>
     <row r="15">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5003</v>
+        <v>4526</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004219695934478713</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0236853562061928</v>
+        <v>0.02142762865285183</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6027,19 +6027,19 @@
         <v>7089</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2946</v>
+        <v>2991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14233</v>
+        <v>13811</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03243121263475885</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01347619182408204</v>
+        <v>0.01368436852349082</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06511284900667373</v>
+        <v>0.06318360250367121</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -6048,19 +6048,19 @@
         <v>7980</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3530</v>
+        <v>3692</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14903</v>
+        <v>14896</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01856719720468857</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008212460646099776</v>
+        <v>0.00858978463658578</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03467294151654134</v>
+        <v>0.03465757608086134</v>
       </c>
     </row>
     <row r="17">
@@ -6077,7 +6077,7 @@
         <v>210330</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206218</v>
+        <v>206695</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -6086,7 +6086,7 @@
         <v>0.9957803040655213</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9763146437938079</v>
+        <v>0.9785723713471481</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6098,19 +6098,19 @@
         <v>211498</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204354</v>
+        <v>204776</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215641</v>
+        <v>215596</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9675687873652411</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9348871509933256</v>
+        <v>0.9368163974963289</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9865238081759178</v>
+        <v>0.9863156314765095</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>427</v>
@@ -6119,19 +6119,19 @@
         <v>421828</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414905</v>
+        <v>414912</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426278</v>
+        <v>426116</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9814328027953114</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9653270584834588</v>
+        <v>0.9653424239191387</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9917875393539004</v>
+        <v>0.9914102153634142</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>2896</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7934</v>
+        <v>7992</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01100567123988504</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00299639800728026</v>
+        <v>0.00299730849728012</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03015339001053238</v>
+        <v>0.03037493241313182</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -6244,19 +6244,19 @@
         <v>10311</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5024</v>
+        <v>4902</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17857</v>
+        <v>18771</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03775282750046488</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01839491068121067</v>
+        <v>0.01794680606173476</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06538192154041673</v>
+        <v>0.0687303912829236</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -6265,19 +6265,19 @@
         <v>13207</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7307</v>
+        <v>7297</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21545</v>
+        <v>22839</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02462844619984868</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01362591102579632</v>
+        <v>0.0136078224854997</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04017747901720983</v>
+        <v>0.04259081432622753</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>260227</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255189</v>
+        <v>255131</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262335</v>
+        <v>262334</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9889943287601149</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9698466099894679</v>
+        <v>0.9696250675868683</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9970036019927198</v>
+        <v>0.9970026915027199</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -6315,19 +6315,19 @@
         <v>262804</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>255258</v>
+        <v>254344</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>268091</v>
+        <v>268213</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9622471724995351</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.934618078459583</v>
+        <v>0.9312696087170762</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9816050893187893</v>
+        <v>0.9820531939382652</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>509</v>
@@ -6336,19 +6336,19 @@
         <v>523031</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>514693</v>
+        <v>513399</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>528931</v>
+        <v>528941</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9753715538001513</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9598225209827902</v>
+        <v>0.9574091856737724</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9863740889742036</v>
+        <v>0.9863921775145003</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>16236</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9012</v>
+        <v>8966</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25753</v>
+        <v>25919</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02472950783256046</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01372653818358398</v>
+        <v>0.01365559184004553</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03922392680020329</v>
+        <v>0.03947762017486298</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -6461,19 +6461,19 @@
         <v>25942</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17857</v>
+        <v>16415</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38401</v>
+        <v>38626</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03752743161407196</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02583105564878611</v>
+        <v>0.02374526827818917</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0555488601207433</v>
+        <v>0.05587477328133521</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -6482,19 +6482,19 @@
         <v>42179</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31233</v>
+        <v>30160</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56806</v>
+        <v>57093</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03129337978939956</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02317264486636017</v>
+        <v>0.02237636990402279</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04214537477489629</v>
+        <v>0.04235858405280209</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>640322</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>630805</v>
+        <v>630639</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>647546</v>
+        <v>647592</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9752704921674396</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9607760731997965</v>
+        <v>0.960522379825137</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9862734618164161</v>
+        <v>0.9863444081599544</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>622</v>
@@ -6532,19 +6532,19 @@
         <v>665352</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>652893</v>
+        <v>652668</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>673437</v>
+        <v>674879</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9624725683859281</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9444511398792567</v>
+        <v>0.9441252267186648</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9741689443512138</v>
+        <v>0.9762547317218109</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1187</v>
@@ -6553,19 +6553,19 @@
         <v>1305673</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1291046</v>
+        <v>1290759</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1316619</v>
+        <v>1317692</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9687066202106004</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9578546252251038</v>
+        <v>0.9576414159471989</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9768273551336399</v>
+        <v>0.9776236300959774</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>6791</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2876</v>
+        <v>2848</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13318</v>
+        <v>13698</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008722045767882994</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00369364462569734</v>
+        <v>0.003658122916735158</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01710507390832848</v>
+        <v>0.01759364334744863</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -6678,19 +6678,19 @@
         <v>29680</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19423</v>
+        <v>20350</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41087</v>
+        <v>42363</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03592467686736196</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02351002676229943</v>
+        <v>0.02463130300146896</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04973199254384561</v>
+        <v>0.05127642078876842</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -6699,19 +6699,19 @@
         <v>36471</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25721</v>
+        <v>25841</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50933</v>
+        <v>50239</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02272666717232466</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01602779375173349</v>
+        <v>0.01610303993429058</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0317387572406623</v>
+        <v>0.03130630992382888</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>771792</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>765265</v>
+        <v>764885</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>775707</v>
+        <v>775735</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.991277954232117</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9828949260916707</v>
+        <v>0.9824063566525514</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9963063553743026</v>
+        <v>0.9963418770832648</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>728</v>
@@ -6749,19 +6749,19 @@
         <v>796487</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>785080</v>
+        <v>783804</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>806744</v>
+        <v>805817</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.964075323132638</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.950268007456154</v>
+        <v>0.9487235792112326</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9764899732377004</v>
+        <v>0.975368696998531</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1471</v>
@@ -6770,19 +6770,19 @@
         <v>1568279</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1553817</v>
+        <v>1554511</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1579029</v>
+        <v>1578909</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9772733328276754</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9682612427593379</v>
+        <v>0.9686936900761712</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9839722062482666</v>
+        <v>0.9838969600657095</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>43343</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30639</v>
+        <v>31372</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>58631</v>
+        <v>57466</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01276920811419563</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009026479037089185</v>
+        <v>0.009242280838390963</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01727313978615082</v>
+        <v>0.01692991018938545</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>137</v>
@@ -6895,19 +6895,19 @@
         <v>147085</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>124950</v>
+        <v>123820</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>173519</v>
+        <v>173737</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04149617599525333</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.035251451864123</v>
+        <v>0.03493270032981925</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04895396728801372</v>
+        <v>0.04901533423396617</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>180</v>
@@ -6916,19 +6916,19 @@
         <v>190428</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>166986</v>
+        <v>166041</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>221500</v>
+        <v>220499</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02744358828001646</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0240652401626078</v>
+        <v>0.02392903685933381</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03192150359104742</v>
+        <v>0.03177723846703377</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3351007</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3335719</v>
+        <v>3336884</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3363711</v>
+        <v>3362978</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9872307918858044</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9827268602138493</v>
+        <v>0.9830700898106146</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9909735209629109</v>
+        <v>0.9907577191616092</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3201</v>
@@ -6966,19 +6966,19 @@
         <v>3397457</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3371023</v>
+        <v>3370805</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3419592</v>
+        <v>3420722</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9585038240047467</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9510460327119862</v>
+        <v>0.9509846657660338</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.964748548135877</v>
+        <v>0.9650672996701807</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6389</v>
@@ -6987,19 +6987,19 @@
         <v>6748464</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6717392</v>
+        <v>6718393</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6771906</v>
+        <v>6772851</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9725564117199835</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9680784964089518</v>
+        <v>0.9682227615329656</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9759347598373921</v>
+        <v>0.976070963140666</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>4685</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2256</v>
+        <v>1604</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10523</v>
+        <v>9661</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0146944044727536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007074546118593891</v>
+        <v>0.005031914781553479</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03300193775273033</v>
+        <v>0.03030128911107193</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -7356,19 +7356,19 @@
         <v>22728</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16405</v>
+        <v>16111</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30560</v>
+        <v>30034</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07190909640135076</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05190482514426036</v>
+        <v>0.0509746730072583</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09668963691201998</v>
+        <v>0.09502510346218737</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -7377,19 +7377,19 @@
         <v>27413</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19866</v>
+        <v>20074</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36257</v>
+        <v>36151</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04317628128793461</v>
+        <v>0.04317628128793462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03129041124368069</v>
+        <v>0.03161685618582705</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05710682498902289</v>
+        <v>0.05693893694752907</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>314160</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308322</v>
+        <v>309184</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>316589</v>
+        <v>317241</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9853055955272463</v>
+        <v>0.9853055955272465</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9669980622472696</v>
+        <v>0.969698710888928</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9929254538814061</v>
+        <v>0.9949680852184465</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>496</v>
@@ -7427,19 +7427,19 @@
         <v>293333</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285501</v>
+        <v>286027</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>299656</v>
+        <v>299950</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9280909035986492</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.90331036308798</v>
+        <v>0.9049748965378129</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9480951748557392</v>
+        <v>0.9490253269927417</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>821</v>
@@ -7448,19 +7448,19 @@
         <v>607493</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>598649</v>
+        <v>598755</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>615040</v>
+        <v>614832</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9568237187120654</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9428931750109772</v>
+        <v>0.9430610630524709</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9687095887563191</v>
+        <v>0.9683831438141728</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>5609</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2019</v>
+        <v>2146</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12624</v>
+        <v>13217</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01059014735408457</v>
+        <v>0.01059014735408456</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003811108423029896</v>
+        <v>0.004051744678758004</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02383327710649157</v>
+        <v>0.02495425712337299</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -7573,19 +7573,19 @@
         <v>13948</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8577</v>
+        <v>8687</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21195</v>
+        <v>21240</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02558312468064787</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01573140964449048</v>
+        <v>0.01593327575873129</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03887551559803508</v>
+        <v>0.03895742999894223</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -7594,19 +7594,19 @@
         <v>19557</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12662</v>
+        <v>12949</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29071</v>
+        <v>28890</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01819511314434217</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01177976587495683</v>
+        <v>0.01204695863034406</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02704558449526441</v>
+        <v>0.02687735274421908</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>524051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>517036</v>
+        <v>516443</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>527641</v>
+        <v>527514</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9894098526459154</v>
+        <v>0.9894098526459155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9761667228935084</v>
+        <v>0.9750457428766272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9961888915769702</v>
+        <v>0.9959482553212423</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>695</v>
@@ -7644,19 +7644,19 @@
         <v>531265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>524018</v>
+        <v>523973</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>536636</v>
+        <v>536526</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9744168753193521</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9611244844019655</v>
+        <v>0.9610425700010577</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9842685903555101</v>
+        <v>0.9840667242412686</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1071</v>
@@ -7665,19 +7665,19 @@
         <v>1055316</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1045802</v>
+        <v>1045983</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1062211</v>
+        <v>1061924</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9818048868556579</v>
+        <v>0.9818048868556577</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.972954415504736</v>
+        <v>0.9731226472557809</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.988220234125043</v>
+        <v>0.9879530413696562</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>12957</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7495</v>
+        <v>7833</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21066</v>
+        <v>21063</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04106804852516346</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02375533185576787</v>
+        <v>0.02482635036958749</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06677116085817789</v>
+        <v>0.0667595999040721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -7790,19 +7790,19 @@
         <v>27481</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20040</v>
+        <v>20427</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35948</v>
+        <v>35561</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07711018972705784</v>
+        <v>0.07711018972705783</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05623166183621729</v>
+        <v>0.05731657850221052</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1008703131012286</v>
+        <v>0.09978315356418285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -7811,19 +7811,19 @@
         <v>40438</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31338</v>
+        <v>31187</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51146</v>
+        <v>52846</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06018567520893472</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04664168833555354</v>
+        <v>0.04641705196898161</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07612379689146856</v>
+        <v>0.07865345937042953</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>302541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>294432</v>
+        <v>294435</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308003</v>
+        <v>307665</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9589319514748368</v>
+        <v>0.9589319514748366</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.933228839141822</v>
+        <v>0.9332404000959277</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9762446681442323</v>
+        <v>0.9751736496304124</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>488</v>
@@ -7861,19 +7861,19 @@
         <v>328900</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>320433</v>
+        <v>320820</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>336341</v>
+        <v>335954</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9228898102729421</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8991296868987712</v>
+        <v>0.9002168464358169</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9437683381637828</v>
+        <v>0.9426834214977892</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>830</v>
@@ -7882,19 +7882,19 @@
         <v>631442</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>620734</v>
+        <v>619034</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640542</v>
+        <v>640693</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9398143247910653</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9238762031085314</v>
+        <v>0.9213465406295703</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9533583116644464</v>
+        <v>0.9535829480310184</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>4004</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1190</v>
+        <v>1249</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13715</v>
+        <v>13855</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01073024790586347</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00318816591190475</v>
+        <v>0.003347490009867485</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03675609157447519</v>
+        <v>0.03712949058291903</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -8007,19 +8007,19 @@
         <v>11815</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6843</v>
+        <v>6660</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18494</v>
+        <v>19384</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02802205344684926</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01623033181505996</v>
+        <v>0.01579541073006033</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04386427521730731</v>
+        <v>0.04597344964566303</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -8028,19 +8028,19 @@
         <v>15819</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9419</v>
+        <v>9820</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25274</v>
+        <v>26262</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01990359057510768</v>
+        <v>0.01990359057510767</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01185065159068869</v>
+        <v>0.01235625096861954</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03180012535469857</v>
+        <v>0.03304346207514136</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>369141</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359430</v>
+        <v>359290</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371955</v>
+        <v>371896</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9892697520941366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9632439084255251</v>
+        <v>0.9628705094170799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9968118340880953</v>
+        <v>0.9966525099901323</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>581</v>
@@ -8078,19 +8078,19 @@
         <v>409815</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>403136</v>
+        <v>402246</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>414787</v>
+        <v>414970</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.971977946553151</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9561357247826928</v>
+        <v>0.954026550354337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9837696681849399</v>
+        <v>0.9842045892699398</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>869</v>
@@ -8099,19 +8099,19 @@
         <v>778956</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>769501</v>
+        <v>768513</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>785356</v>
+        <v>784955</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9800964094248923</v>
+        <v>0.9800964094248924</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.968199874645302</v>
+        <v>0.9669565379248586</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9881493484093112</v>
+        <v>0.9876437490313802</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>5801</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2819</v>
+        <v>2933</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10254</v>
+        <v>10473</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02820503746636102</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01370684551806678</v>
+        <v>0.0142595213586647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04985760715000134</v>
+        <v>0.05092396215396353</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -8224,19 +8224,19 @@
         <v>18060</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12796</v>
+        <v>13291</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23161</v>
+        <v>23607</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07948388937570577</v>
+        <v>0.07948388937570576</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05631652206959228</v>
+        <v>0.05849680032145971</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1019345022667218</v>
+        <v>0.1038964746057855</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -8245,19 +8245,19 @@
         <v>23861</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18053</v>
+        <v>18107</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30895</v>
+        <v>30906</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05512086743235958</v>
+        <v>0.05512086743235959</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04170527966236214</v>
+        <v>0.04183024221003144</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07137080791366804</v>
+        <v>0.07139713424939752</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>199864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195411</v>
+        <v>195192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202846</v>
+        <v>202732</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9717949625336388</v>
+        <v>0.971794962533639</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9501423928499989</v>
+        <v>0.9490760378460362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9862931544819332</v>
+        <v>0.9857404786413353</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>446</v>
@@ -8295,19 +8295,19 @@
         <v>209155</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204054</v>
+        <v>203608</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>214419</v>
+        <v>213924</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9205161106242944</v>
+        <v>0.9205161106242942</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8980654977332784</v>
+        <v>0.8961035253942147</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9436834779304077</v>
+        <v>0.9415031996785402</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>715</v>
@@ -8316,19 +8316,19 @@
         <v>409018</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>401984</v>
+        <v>401973</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>414826</v>
+        <v>414772</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9448791325676404</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9286291920863315</v>
+        <v>0.9286028657506019</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9582947203376377</v>
+        <v>0.9581697577899686</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>7514</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4279</v>
+        <v>3983</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13110</v>
+        <v>12672</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02775557700683317</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01580634910640297</v>
+        <v>0.01471481597109463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04843041600081838</v>
+        <v>0.04681047421039188</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -8441,19 +8441,19 @@
         <v>17557</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11631</v>
+        <v>13048</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23623</v>
+        <v>24489</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06656768690110214</v>
+        <v>0.06656768690110211</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04409689007707487</v>
+        <v>0.04947048445390789</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08956700222021428</v>
+        <v>0.0928486213569647</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -8462,19 +8462,19 @@
         <v>25071</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19283</v>
+        <v>19000</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33227</v>
+        <v>33290</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04690903578890494</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03607895245382084</v>
+        <v>0.03554993555502999</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06216995715948753</v>
+        <v>0.06228741531521235</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>263193</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257597</v>
+        <v>258035</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266428</v>
+        <v>266724</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9722444229931668</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9515695839991812</v>
+        <v>0.9531895257896082</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.984193650893597</v>
+        <v>0.9852851840289056</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>420</v>
@@ -8512,19 +8512,19 @@
         <v>246193</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240127</v>
+        <v>239261</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>252119</v>
+        <v>250702</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.933432313098898</v>
+        <v>0.9334323130988977</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.910432997779786</v>
+        <v>0.9071513786430354</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9559031099229252</v>
+        <v>0.9505295155460922</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>777</v>
@@ -8533,19 +8533,19 @@
         <v>509386</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>501230</v>
+        <v>501167</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>515174</v>
+        <v>515457</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9530909642110951</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9378300428405123</v>
+        <v>0.9377125846847877</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9639210475461789</v>
+        <v>0.9644500644449701</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>34611</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23971</v>
+        <v>23298</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49333</v>
+        <v>48005</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04809157776315448</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03330779680963905</v>
+        <v>0.03237307272550004</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06854739984332946</v>
+        <v>0.06670257163716782</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -8658,19 +8658,19 @@
         <v>73210</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58950</v>
+        <v>58224</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91367</v>
+        <v>90446</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0948250185609321</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07635498711901102</v>
+        <v>0.07541456839678394</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1183426775198781</v>
+        <v>0.1171488724577305</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>123</v>
@@ -8679,19 +8679,19 @@
         <v>107821</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89518</v>
+        <v>88388</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>130294</v>
+        <v>128789</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07227861910930013</v>
+        <v>0.07227861910930015</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06000927870074164</v>
+        <v>0.05925153755959167</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08734310283021759</v>
+        <v>0.08633463292048527</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>685076</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>670354</v>
+        <v>671682</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>695716</v>
+        <v>696389</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9519084222368457</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9314526001566705</v>
+        <v>0.9332974283628321</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9666922031903611</v>
+        <v>0.9676269272745004</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>868</v>
@@ -8729,19 +8729,19 @@
         <v>698847</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>680690</v>
+        <v>681611</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>713107</v>
+        <v>713833</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9051749814390677</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8816573224801216</v>
+        <v>0.8828511275422692</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9236450128809889</v>
+        <v>0.9245854316032159</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1436</v>
@@ -8750,19 +8750,19 @@
         <v>1383923</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1361450</v>
+        <v>1362955</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1402226</v>
+        <v>1403356</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9277213808906999</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9126568971697824</v>
+        <v>0.9136653670795148</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9399907212992578</v>
+        <v>0.9407484624404086</v>
       </c>
     </row>
     <row r="24">
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6383</v>
+        <v>6681</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002330616011747497</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007998151699692322</v>
+        <v>0.0083713313960513</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -8875,19 +8875,19 @@
         <v>15335</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10066</v>
+        <v>10030</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21877</v>
+        <v>22632</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01847615876791881</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01212738992221333</v>
+        <v>0.01208425863458216</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0263579233670978</v>
+        <v>0.02726746105628633</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -8896,19 +8896,19 @@
         <v>17195</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11490</v>
+        <v>11333</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25743</v>
+        <v>25296</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01056172977389615</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007057697705368004</v>
+        <v>0.006960679949329519</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0158117323055312</v>
+        <v>0.01553748407474565</v>
       </c>
     </row>
     <row r="26">
@@ -8925,7 +8925,7 @@
         <v>796212</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>791689</v>
+        <v>791391</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>798072</v>
@@ -8934,7 +8934,7 @@
         <v>0.9976693839882524</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9920018483003065</v>
+        <v>0.9916286686039496</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -8946,19 +8946,19 @@
         <v>814671</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>808129</v>
+        <v>807374</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>819940</v>
+        <v>819976</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9815238412320813</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9736420766329021</v>
+        <v>0.9727325389437136</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9878726100777866</v>
+        <v>0.9879157413654174</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1797</v>
@@ -8967,19 +8967,19 @@
         <v>1610883</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1602335</v>
+        <v>1602782</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1616588</v>
+        <v>1616745</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9894382702261039</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9841882676944689</v>
+        <v>0.9844625159252548</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.992942302294632</v>
+        <v>0.9930393200506709</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>77041</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>61801</v>
+        <v>61458</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>97029</v>
+        <v>95935</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02181661457290775</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01750095081419149</v>
+        <v>0.01740374855571909</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02747710060656051</v>
+        <v>0.02716706829890591</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>328</v>
@@ -9092,19 +9092,19 @@
         <v>200134</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>178458</v>
+        <v>178491</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>224117</v>
+        <v>223712</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05362204465236969</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04781439752896498</v>
+        <v>0.04782308958323538</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06004761908896834</v>
+        <v>0.05993935262044658</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>417</v>
@@ -9113,19 +9113,19 @@
         <v>277175</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>250321</v>
+        <v>250642</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>307025</v>
+        <v>306739</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03815946764263832</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0344623917043537</v>
+        <v>0.03450654779983976</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04226908147735559</v>
+        <v>0.04222967312488109</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3454239</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3434251</v>
+        <v>3435345</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3469479</v>
+        <v>3469822</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9781833854270924</v>
+        <v>0.9781833854270922</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9725228993934393</v>
+        <v>0.9728329317010939</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9824990491858084</v>
+        <v>0.982596251444281</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5031</v>
@@ -9163,19 +9163,19 @@
         <v>3532179</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3508196</v>
+        <v>3508601</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3553855</v>
+        <v>3553822</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9463779553476304</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9399523809110319</v>
+        <v>0.9400606473795535</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9521856024710352</v>
+        <v>0.9521769104167648</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8316</v>
@@ -9184,19 +9184,19 @@
         <v>6986418</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6956568</v>
+        <v>6956854</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7013272</v>
+        <v>7012951</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9618405323573618</v>
+        <v>0.9618405323573616</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9577309185226445</v>
+        <v>0.9577703268751189</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9655376082956465</v>
+        <v>0.9654934522001604</v>
       </c>
     </row>
     <row r="30">
